--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_historyDiseases.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_historyDiseases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>История болезни</t>
   </si>
@@ -63,31 +63,34 @@
     <t>Олегович</t>
   </si>
   <si>
+    <t>Дальнозоркость</t>
+  </si>
+  <si>
+    <t>Слабое зрение -3 и -4</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Сегмаш</t>
+  </si>
+  <si>
+    <t>Рудольфович</t>
+  </si>
+  <si>
+    <t>1111rgsddsg grether herhhrhrhr</t>
+  </si>
+  <si>
     <t>Близорукость</t>
   </si>
   <si>
-    <t>Слабое зрение -3 и -4</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>Владимирович</t>
-  </si>
-  <si>
-    <t>Сегмаш</t>
-  </si>
-  <si>
-    <t>Рудольфович</t>
-  </si>
-  <si>
     <t>Зрение -4 и -4.5</t>
-  </si>
-  <si>
-    <t>Зрение -4 и -4.7</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>45030</v>
@@ -562,25 +565,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>45040</v>
+        <v>45030</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
